--- a/agmo_myfarm/data_file/AGMO_Dataset2_output.xlsx
+++ b/agmo_myfarm/data_file/AGMO_Dataset2_output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songseung-u/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songseung-u/Downloads/AGMO_Dataset_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4397AAB2-4C16-3C45-B31F-3E3D87ED34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821327FC-8979-7C47-ABE7-04F755A7ED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28540" windowHeight="16940" xr2:uid="{CDC175CE-B6F8-C84B-BFA3-33354A7AE243}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3774130A-19DE-E54A-8CF1-3DF6441E28D2}">
   <dimension ref="A1:L450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="L458" sqref="L458"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
